--- a/alvinafbarboza_9.xlsx
+++ b/alvinafbarboza_9.xlsx
@@ -899,7 +899,11 @@
       <c r="A47" t="n">
         <v>556796712129</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Primo</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
